--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_极光组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\GitRepository\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -283,6 +283,45 @@
   </si>
   <si>
     <t>韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -376,6 +415,7 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -526,7 +566,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,9 +688,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1131,13 +1168,21 @@
       <c r="K2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="30"/>
+      <c r="L2" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="M2" s="32"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="N2" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
-      <c r="R2" s="7"/>
+      <c r="R2" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
@@ -1173,10 +1218,18 @@
       <c r="K3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
+      <c r="L3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="34" t="s">
@@ -1217,10 +1270,16 @@
       <c r="K4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="30"/>
+      <c r="L4" s="30" t="s">
+        <v>73</v>
+      </c>
       <c r="M4" s="32"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="N4" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="34" t="s">
@@ -1261,10 +1320,18 @@
       <c r="K5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
+      <c r="L5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="40" t="s">
@@ -1305,14 +1372,22 @@
       <c r="K6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
+      <c r="L6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="34" t="s">
-        <v>38</v>
+      <c r="R6" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
@@ -1347,13 +1422,23 @@
         <v>63</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
+      <c r="L7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="41"/>
+      <c r="R7" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
@@ -1389,14 +1474,22 @@
       <c r="K8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
+      <c r="L8" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="34" t="s">
-        <v>38</v>
+      <c r="R8" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
@@ -1433,14 +1526,22 @@
       <c r="K9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
+      <c r="L9" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="34" t="s">
-        <v>30</v>
+      <c r="R9" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
@@ -1477,14 +1578,22 @@
       <c r="K10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
+      <c r="L10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="34" t="s">
-        <v>38</v>
+      <c r="R10" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
@@ -1521,14 +1630,22 @@
       <c r="K11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
+      <c r="L11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="34" t="s">
-        <v>30</v>
+      <c r="R11" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
@@ -1565,14 +1682,22 @@
       <c r="K12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
+      <c r="L12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="34" t="s">
-        <v>30</v>
+      <c r="R12" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
@@ -1609,14 +1734,22 @@
       <c r="K13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="L13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="42" t="s">
-        <v>38</v>
+      <c r="R13" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
@@ -1653,13 +1786,21 @@
       <c r="K14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="L14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="42" t="s">
+      <c r="R14" s="41" t="s">
         <v>30</v>
       </c>
       <c r="S14" s="18"/>

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_极光组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_极光组.xlsx
@@ -15,12 +15,12 @@
     <sheet name="版本3.1.0 New Features|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -305,6 +305,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>施超、纪维玉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -313,15 +317,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>施超、纪维玉</t>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>纪维玉</t>
+    <t>房东提现如果支付密码错误或绑定银行卡信息错误，给出明确提示</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>能</t>
+    <t>房东在BS端注册时直接设置登录密码并发短信通知房东，后续如绑定银行卡则仅发送短信通知而不重置密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买回成功后买回列表页面显示"买回日期"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1050,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1169,14 +1181,16 @@
         <v>36</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="32"/>
+        <v>77</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="N2" s="31">
         <v>42460</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
@@ -1228,7 +1242,7 @@
         <v>42460</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1273,12 +1287,14 @@
       <c r="L4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="N4" s="31">
         <v>42460</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1330,7 +1346,7 @@
         <v>42460</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
@@ -1373,7 +1389,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>74</v>
@@ -1382,7 +1398,7 @@
         <v>42460</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -1423,7 +1439,7 @@
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>74</v>
@@ -1432,7 +1448,7 @@
         <v>42460</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1484,7 +1500,7 @@
         <v>42460</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1527,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M9" s="32" t="s">
         <v>74</v>
@@ -1536,7 +1552,7 @@
         <v>42460</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1588,7 +1604,7 @@
         <v>42460</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1631,7 +1647,7 @@
         <v>37</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="32" t="s">
         <v>74</v>
@@ -1640,7 +1656,7 @@
         <v>42460</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1692,7 +1708,7 @@
         <v>42460</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1735,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" s="32" t="s">
         <v>74</v>
@@ -1744,7 +1760,7 @@
         <v>42460</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="7"/>
@@ -1787,7 +1803,7 @@
         <v>36</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M14" s="32" t="s">
         <v>74</v>
@@ -1796,7 +1812,7 @@
         <v>42460</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1806,69 +1822,159 @@
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="31">
+        <v>42459</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="31">
+        <v>42459</v>
+      </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="J15" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="29"/>
+      <c r="R15" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="31">
+        <v>42459</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="31">
+        <v>42459</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="29"/>
+      <c r="R16" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="31">
+        <v>42459</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="31">
+        <v>42459</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="J17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="31">
+        <v>42460</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="29"/>
+      <c r="R17" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
